--- a/pwflat.xlsx
+++ b/pwflat.xlsx
@@ -21,6 +21,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>curve</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -370,298 +384,350 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACE49A-4FCE-4A52-AAC4-959EAE9753D1}">
-  <dimension ref="B2:F34"/>
+  <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f t="array" ref="F2:F34">_xll.PWFLAT.VALUE(C6, E2:E34)</f>
-        <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <f t="array" aca="1" ref="F3:F35" ca="1">_xll.PWFLAT.VALUE(C7, E3:E35)</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <f ca="1">RAND()</f>
+        <v>0.44473887564471604</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <f ca="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+      <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="F4">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E5">
-        <v>0.3</v>
-      </c>
       <c r="F5">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="C6">
-        <f>_xll.PWFLAT.CURVE(B2:B4, C2:C4)</f>
-        <v>434996008</v>
-      </c>
       <c r="E6">
+        <v>0.3</v>
+      </c>
+      <c r="F6">
+        <f ca="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <f ca="1">_xll.PWFLAT.CURVE(B3:B5, C3:C5)</f>
+        <v>370134640</v>
+      </c>
+      <c r="E7">
         <v>0.4</v>
       </c>
-      <c r="F6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="E7">
-        <v>0.5</v>
-      </c>
       <c r="F7">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E8">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F8">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E9">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F9">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E10">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F10">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E11">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F11">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E12">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="F12">
+        <f ca="1"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E13">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E14">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E15">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
       <c r="E16">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E17">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="F17">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E18">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E19">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E20">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="F20">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E21">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="F21">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E22">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="F22">
-        <v>0.2</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E23">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>0.3</v>
+        <f ca="1"/>
+        <v>0.44473887564471604</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E24">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
       <c r="F24">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E25">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F25">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E26">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F26">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E27">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F27">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E28">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="F28">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E29">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="F29">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="30" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E30">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="F30">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="31" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E31">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="F31">
+        <f ca="1"/>
         <v>0.3</v>
       </c>
     </row>
     <row r="32" spans="5:6" x14ac:dyDescent="0.45">
       <c r="E32">
+        <v>2.9</v>
+      </c>
+      <c r="F32">
+        <f ca="1"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="F32">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E33">
+      <c r="F33">
+        <f ca="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="G33">
+        <f ca="1">TYPE(F33)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E34">
         <v>3.1</v>
       </c>
-      <c r="F33" t="e">
+      <c r="F34" t="e">
+        <f ca="1"/>
         <v>#NUM!</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.45">
-      <c r="E34">
+      <c r="G34">
+        <f ca="1">TYPE(F34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.45">
+      <c r="E35">
         <v>3.2</v>
       </c>
-      <c r="F34" t="e">
+      <c r="F35" t="e">
+        <f ca="1"/>
         <v>#NUM!</v>
       </c>
     </row>

--- a/pwflat.xlsx
+++ b/pwflat.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BACE49A-4FCE-4A52-AAC4-959EAE9753D1}">
   <dimension ref="B2:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -421,7 +421,7 @@
       </c>
       <c r="C4">
         <f ca="1">RAND()</f>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
       <c r="E4">
         <v>0.1</v>
@@ -461,7 +461,7 @@
       </c>
       <c r="C7">
         <f ca="1">_xll.PWFLAT.CURVE(B3:B5, C3:C5)</f>
-        <v>370134640</v>
+        <v>-698298</v>
       </c>
       <c r="E7">
         <v>0.4</v>
@@ -531,7 +531,7 @@
       </c>
       <c r="F14">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.45">
@@ -540,7 +540,7 @@
       </c>
       <c r="F15">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.45">
@@ -549,7 +549,7 @@
       </c>
       <c r="F16">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.45">
@@ -558,7 +558,7 @@
       </c>
       <c r="F17">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.45">
@@ -567,7 +567,7 @@
       </c>
       <c r="F18">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.45">
@@ -576,7 +576,7 @@
       </c>
       <c r="F19">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.45">
@@ -585,7 +585,7 @@
       </c>
       <c r="F20">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.45">
@@ -594,7 +594,7 @@
       </c>
       <c r="F21">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.45">
@@ -603,7 +603,7 @@
       </c>
       <c r="F22">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.45">
@@ -612,7 +612,7 @@
       </c>
       <c r="F23">
         <f ca="1"/>
-        <v>0.44473887564471604</v>
+        <v>0.98547236273928163</v>
       </c>
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.45">
